--- a/Summaries/SP1/Betis_Espanol_adv.xlsx
+++ b/Summaries/SP1/Betis_Espanol_adv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="279">
   <si>
     <t>Div</t>
   </si>
@@ -295,33 +295,30 @@
     <t>SP1</t>
   </si>
   <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
     <t>Real Madrid</t>
   </si>
   <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Espanol</t>
-  </si>
-  <si>
-    <t>Leganes</t>
-  </si>
-  <si>
     <t>Getafe</t>
   </si>
   <si>
     <t>Mallorca</t>
   </si>
   <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
     <t>Alaves</t>
   </si>
   <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -337,37 +334,28 @@
     <t>1-1</t>
   </si>
   <si>
-    <t>2-0</t>
-  </si>
-  <si>
     <t>2-1</t>
   </si>
   <si>
     <t>1-2</t>
   </si>
   <si>
+    <t>1-0</t>
+  </si>
+  <si>
     <t>3-2</t>
   </si>
   <si>
     <t>4-1</t>
   </si>
   <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>11-1</t>
-  </si>
-  <si>
     <t>8-4</t>
   </si>
   <si>
     <t>6-3</t>
   </si>
   <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>3-7</t>
+    <t>1-4</t>
   </si>
   <si>
     <t>0-5</t>
@@ -382,22 +370,16 @@
     <t>N</t>
   </si>
   <si>
-    <t>Real Madrid-Betis</t>
-  </si>
-  <si>
-    <t>Betis-Leganes</t>
-  </si>
-  <si>
     <t>Betis-Getafe</t>
   </si>
   <si>
     <t>Betis-Mallorca</t>
   </si>
   <si>
-    <t>Ath Madrid-Espanol</t>
-  </si>
-  <si>
-    <t>Espanol-Vallecano</t>
+    <t>Las Palmas-Betis</t>
+  </si>
+  <si>
+    <t>Betis-Espanol</t>
   </si>
   <si>
     <t>Espanol-Alaves</t>
@@ -406,10 +388,7 @@
     <t>Real Madrid-Espanol</t>
   </si>
   <si>
-    <t>Javier Alberola</t>
-  </si>
-  <si>
-    <t>Pablo González</t>
+    <t>Espanol-Villarreal</t>
   </si>
   <si>
     <t>Juan Pulido</t>
@@ -418,12 +397,18 @@
     <t>Víctor García</t>
   </si>
   <si>
-    <t>Adrián Cordero</t>
+    <t>José Sánchez</t>
+  </si>
+  <si>
+    <t>Alejandro Hernández</t>
   </si>
   <si>
     <t>José Luis Munuera</t>
   </si>
   <si>
+    <t>Alejandro Quintero</t>
+  </si>
+  <si>
     <t>Rk</t>
   </si>
   <si>
@@ -499,81 +484,87 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>1506</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>656</t>
-  </si>
-  <si>
-    <t>926</t>
-  </si>
-  <si>
-    <t>1092</t>
-  </si>
-  <si>
-    <t>1605</t>
+    <t>1541</t>
   </si>
   <si>
     <t>1641</t>
   </si>
   <si>
-    <t>1750</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>340</t>
+    <t>70</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>944</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>1678</t>
+  </si>
+  <si>
+    <t>1787</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>183</t>
   </si>
   <si>
     <t>347</t>
   </si>
   <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>618</t>
-  </si>
-  <si>
-    <t>631</t>
-  </si>
-  <si>
-    <t>1089</t>
-  </si>
-  <si>
-    <t>1105</t>
-  </si>
-  <si>
-    <t>1346</t>
-  </si>
-  <si>
-    <t>1606</t>
-  </si>
-  <si>
-    <t>1614</t>
-  </si>
-  <si>
-    <t>1628</t>
-  </si>
-  <si>
-    <t>1650</t>
+    <t>354</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>1376</t>
+  </si>
+  <si>
+    <t>1642</t>
+  </si>
+  <si>
+    <t>1651</t>
+  </si>
+  <si>
+    <t>1665</t>
+  </si>
+  <si>
+    <t>1687</t>
   </si>
   <si>
     <t>Romain Perraud</t>
   </si>
   <si>
+    <t>Marc Roca</t>
+  </si>
+  <si>
+    <t>Sergi Altimira</t>
+  </si>
+  <si>
     <t>Ezequiel Ávila</t>
   </si>
   <si>
@@ -589,18 +580,12 @@
     <t>Giovani Lo Celso</t>
   </si>
   <si>
-    <t>Marc Roca</t>
-  </si>
-  <si>
     <t>Aitor Ruibal</t>
   </si>
   <si>
     <t>Rui Silva</t>
   </si>
   <si>
-    <t>Sergi Altimira</t>
-  </si>
-  <si>
     <t>Cédric Bakambu</t>
   </si>
   <si>
@@ -646,12 +631,12 @@
     <t>fr FRA</t>
   </si>
   <si>
+    <t>es ESP</t>
+  </si>
+  <si>
     <t>ar ARG</t>
   </si>
   <si>
-    <t>es ESP</t>
-  </si>
-  <si>
     <t>pt POR</t>
   </si>
   <si>
@@ -676,13 +661,16 @@
     <t>DF</t>
   </si>
   <si>
+    <t>MF</t>
+  </si>
+  <si>
     <t>FW</t>
   </si>
   <si>
     <t>FW,MF</t>
   </si>
   <si>
-    <t>MF</t>
+    <t>FW,DF</t>
   </si>
   <si>
     <t>GK</t>
@@ -691,94 +679,94 @@
     <t>es La Liga</t>
   </si>
   <si>
-    <t>27-003</t>
-  </si>
-  <si>
-    <t>30-232</t>
-  </si>
-  <si>
-    <t>29-190</t>
-  </si>
-  <si>
-    <t>28-216</t>
-  </si>
-  <si>
-    <t>31-128</t>
-  </si>
-  <si>
-    <t>28-169</t>
-  </si>
-  <si>
-    <t>27-304</t>
-  </si>
-  <si>
-    <t>28-187</t>
-  </si>
-  <si>
-    <t>30-231</t>
-  </si>
-  <si>
-    <t>23-031</t>
-  </si>
-  <si>
-    <t>33-167</t>
-  </si>
-  <si>
-    <t>33-254</t>
-  </si>
-  <si>
-    <t>23-005</t>
-  </si>
-  <si>
-    <t>32-171</t>
-  </si>
-  <si>
-    <t>19-018</t>
-  </si>
-  <si>
-    <t>22-283</t>
-  </si>
-  <si>
-    <t>31-069</t>
-  </si>
-  <si>
-    <t>31-040</t>
-  </si>
-  <si>
-    <t>23-055</t>
-  </si>
-  <si>
-    <t>23-232</t>
-  </si>
-  <si>
-    <t>24-132</t>
-  </si>
-  <si>
-    <t>32-031</t>
-  </si>
-  <si>
-    <t>19-210</t>
-  </si>
-  <si>
-    <t>31-204</t>
+    <t>27-011</t>
+  </si>
+  <si>
+    <t>27-312</t>
+  </si>
+  <si>
+    <t>23-039</t>
+  </si>
+  <si>
+    <t>30-240</t>
+  </si>
+  <si>
+    <t>29-198</t>
+  </si>
+  <si>
+    <t>28-224</t>
+  </si>
+  <si>
+    <t>31-136</t>
+  </si>
+  <si>
+    <t>28-177</t>
+  </si>
+  <si>
+    <t>28-195</t>
+  </si>
+  <si>
+    <t>30-239</t>
+  </si>
+  <si>
+    <t>33-175</t>
+  </si>
+  <si>
+    <t>33-262</t>
+  </si>
+  <si>
+    <t>23-013</t>
+  </si>
+  <si>
+    <t>32-179</t>
+  </si>
+  <si>
+    <t>19-026</t>
+  </si>
+  <si>
+    <t>22-291</t>
+  </si>
+  <si>
+    <t>31-077</t>
+  </si>
+  <si>
+    <t>31-048</t>
+  </si>
+  <si>
+    <t>23-063</t>
+  </si>
+  <si>
+    <t>23-240</t>
+  </si>
+  <si>
+    <t>24-140</t>
+  </si>
+  <si>
+    <t>32-039</t>
+  </si>
+  <si>
+    <t>19-218</t>
+  </si>
+  <si>
+    <t>31-212</t>
   </si>
   <si>
     <t>1997</t>
   </si>
   <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>1994</t>
   </si>
   <si>
     <t>1995</t>
   </si>
   <si>
-    <t>1996</t>
-  </si>
-  <si>
     <t>1993</t>
-  </si>
-  <si>
-    <t>2001</t>
   </si>
   <si>
     <t>1991</t>
@@ -1177,22 +1165,22 @@
         <v>92</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>45536.0</v>
+        <v>45553.0</v>
       </c>
       <c r="D2" t="s">
         <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F2" t="n">
         <v>2.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1201,151 +1189,151 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="O2" t="s">
         <v>104</v>
       </c>
-      <c r="L2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>105</v>
-      </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="R2" t="n">
         <v>8.0</v>
       </c>
       <c r="S2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>12.0</v>
       </c>
-      <c r="T2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AE2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="AO2" t="n">
         <v>3.0</v>
       </c>
-      <c r="AA2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>142.0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2.0</v>
-      </c>
       <c r="AP2" t="n">
-        <v>18.0</v>
+        <v>48.0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>20.0</v>
+        <v>80.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0</v>
+        <v>1500.0</v>
       </c>
       <c r="AS2" t="n">
-        <v>40.0</v>
+        <v>240.0</v>
       </c>
       <c r="AT2" t="n">
-        <v>200.0</v>
+        <v>960.0</v>
       </c>
       <c r="AU2" t="n">
-        <v>360.0</v>
+        <v>3840.0</v>
       </c>
       <c r="AV2" t="n">
-        <v>20.0</v>
+        <v>36.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>36.0</v>
+        <v>144.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>180.0</v>
+        <v>576.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>1420.0</v>
+        <v>2700.0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>400.0</v>
+        <v>2880.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="BB2" t="n">
         <v>0.6</v>
       </c>
       <c r="BC2" t="n">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="BE2" t="n">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="BH2" t="n">
         <v>0.0</v>
@@ -1354,11 +1342,11 @@
         <v>0.0</v>
       </c>
       <c r="BJ2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK2" t="n">
         <v>2.0</v>
       </c>
-      <c r="BK2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="BL2" t="n">
         <v>0.0</v>
       </c>
@@ -1366,61 +1354,61 @@
         <v>0.0</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="BQ2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR2" t="n">
         <v>20.0</v>
       </c>
-      <c r="BR2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="BS2" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0</v>
+        <v>1500.0</v>
       </c>
       <c r="BU2" t="n">
-        <v>124.0</v>
+        <v>169.0</v>
       </c>
       <c r="BV2" t="n">
         <v>0.0</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0</v>
+        <v>162.0</v>
       </c>
       <c r="BX2" t="n">
         <v>0.0</v>
       </c>
       <c r="BY2" t="n">
-        <v>124.0</v>
+        <v>169.0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0</v>
+        <v>162.0</v>
       </c>
       <c r="CA2" t="n">
-        <v>124.0</v>
+        <v>331.0</v>
       </c>
       <c r="CB2" t="n">
-        <v>59.0</v>
+        <v>38.0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="CD2" t="n">
-        <v>59.0</v>
+        <v>12.0</v>
       </c>
       <c r="CE2" t="n">
         <v>1.0</v>
       </c>
       <c r="CF2" t="n">
-        <v>80.0</v>
+        <v>131.0</v>
       </c>
     </row>
     <row r="3">
@@ -1431,40 +1419,40 @@
         <v>92</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>45548.0</v>
+        <v>45558.0</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
       </c>
       <c r="H3" t="s">
         <v>102</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L3" t="n">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="M3" t="n">
-        <v>3.76</v>
+        <v>3.3</v>
       </c>
       <c r="N3" t="n">
-        <v>6.37</v>
+        <v>4.98</v>
       </c>
       <c r="O3" t="s">
         <v>105</v>
@@ -1476,16 +1464,16 @@
         <v>14.0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="S3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U3" t="n">
         <v>3.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.0</v>
       </c>
       <c r="V3" t="n">
         <v>2.0</v>
@@ -1497,133 +1485,133 @@
         <v>0.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AH3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AI3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AJ3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="AO3" t="n">
         <v>3.0</v>
       </c>
-      <c r="AK3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>2.0</v>
-      </c>
       <c r="AP3" t="n">
-        <v>18.0</v>
+        <v>50.0</v>
       </c>
       <c r="AQ3" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>2500.0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>945.0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1350.0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN3" t="n">
         <v>30.0</v>
       </c>
-      <c r="AR3" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>360.0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>540.0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>216.0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>1920.0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>720.0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>10.0</v>
-      </c>
       <c r="BO3" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="BP3" t="n">
         <v>30.0</v>
@@ -1632,49 +1620,49 @@
         <v>0.0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.0</v>
+        <v>900.0</v>
       </c>
       <c r="BU3" t="n">
-        <v>41.0</v>
+        <v>90.0</v>
       </c>
       <c r="BV3" t="n">
         <v>0.0</v>
       </c>
       <c r="BW3" t="n">
-        <v>48.0</v>
+        <v>241.0</v>
       </c>
       <c r="BX3" t="n">
         <v>0.0</v>
       </c>
       <c r="BY3" t="n">
-        <v>41.0</v>
+        <v>90.0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>48.0</v>
+        <v>241.0</v>
       </c>
       <c r="CA3" t="n">
-        <v>89.0</v>
+        <v>331.0</v>
       </c>
       <c r="CB3" t="n">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
       <c r="CC3" t="n">
-        <v>11.0</v>
+        <v>65.0</v>
       </c>
       <c r="CD3" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="CE3" t="n">
         <v>0.0</v>
       </c>
       <c r="CF3" t="n">
-        <v>81.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="4">
@@ -1685,64 +1673,64 @@
         <v>92</v>
       </c>
       <c r="C4" t="n" s="2">
-        <v>45553.0</v>
+        <v>45561.0</v>
       </c>
       <c r="D4" t="s">
         <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
         <v>1.0</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L4" t="n">
-        <v>1.96</v>
+        <v>3.18</v>
       </c>
       <c r="M4" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="N4" t="n">
-        <v>4.84</v>
+        <v>2.41</v>
       </c>
       <c r="O4" t="s">
         <v>105</v>
       </c>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="R4" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="T4" t="n">
         <v>5.0</v>
       </c>
       <c r="U4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="V4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="W4" t="n">
         <v>0.0</v>
@@ -1751,109 +1739,109 @@
         <v>0.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z4" t="n">
         <v>4.0</v>
       </c>
       <c r="AA4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AB4" t="n">
         <v>10.0</v>
       </c>
-      <c r="AB4" t="n">
-        <v>20.0</v>
-      </c>
       <c r="AC4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="AE4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP4" t="n">
         <v>30.0</v>
       </c>
-      <c r="AF4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>225.0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BD4" t="n">
         <v>48.0</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>240.0</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>960.0</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>3840.0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>144.0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>576.0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>2700.0</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>2880.0</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>93.0</v>
-      </c>
       <c r="BE4" t="n">
-        <v>74.0</v>
+        <v>9.0</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH4" t="n">
         <v>0.0</v>
@@ -1862,7 +1850,7 @@
         <v>0.0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="BK4" t="n">
         <v>2.0</v>
@@ -1874,61 +1862,61 @@
         <v>0.0</v>
       </c>
       <c r="BN4" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO4" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="BP4" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>10.0</v>
+        <v>40.0</v>
       </c>
       <c r="BR4" t="n">
         <v>20.0</v>
       </c>
       <c r="BS4" t="n">
-        <v>30.0</v>
+        <v>60.0</v>
       </c>
       <c r="BT4" t="n">
-        <v>1500.0</v>
+        <v>0.0</v>
       </c>
       <c r="BU4" t="n">
-        <v>169.0</v>
+        <v>272.0</v>
       </c>
       <c r="BV4" t="n">
         <v>0.0</v>
       </c>
       <c r="BW4" t="n">
-        <v>162.0</v>
+        <v>121.0</v>
       </c>
       <c r="BX4" t="n">
         <v>0.0</v>
       </c>
       <c r="BY4" t="n">
-        <v>169.0</v>
+        <v>272.0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>162.0</v>
+        <v>121.0</v>
       </c>
       <c r="CA4" t="n">
-        <v>331.0</v>
+        <v>393.0</v>
       </c>
       <c r="CB4" t="n">
-        <v>38.0</v>
+        <v>54.0</v>
       </c>
       <c r="CC4" t="n">
-        <v>12.0</v>
+        <v>57.0</v>
       </c>
       <c r="CD4" t="n">
-        <v>12.0</v>
+        <v>54.0</v>
       </c>
       <c r="CE4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF4" t="n">
-        <v>131.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="5">
@@ -1939,184 +1927,184 @@
         <v>92</v>
       </c>
       <c r="C5" t="n" s="2">
-        <v>45558.0</v>
+        <v>45564.0</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F5" t="n">
         <v>1.0</v>
       </c>
       <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="O5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.0</v>
       </c>
-      <c r="H5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="O5" t="s">
-        <v>106</v>
-      </c>
-      <c r="P5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="V5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>14.0</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AB5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>6.0</v>
       </c>
-      <c r="S5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="AK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ5" t="n">
         <v>2.0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>2500.0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>945.0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>1350.0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>0.0</v>
       </c>
       <c r="BK5" t="n">
         <v>3.0</v>
@@ -2128,61 +2116,61 @@
         <v>0.0</v>
       </c>
       <c r="BN5" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BP5" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BR5" t="n">
         <v>30.0</v>
       </c>
       <c r="BS5" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="BT5" t="n">
-        <v>900.0</v>
+        <v>500.0</v>
       </c>
       <c r="BU5" t="n">
-        <v>90.0</v>
+        <v>141.0</v>
       </c>
       <c r="BV5" t="n">
         <v>0.0</v>
       </c>
       <c r="BW5" t="n">
-        <v>241.0</v>
+        <v>278.0</v>
       </c>
       <c r="BX5" t="n">
         <v>0.0</v>
       </c>
       <c r="BY5" t="n">
-        <v>90.0</v>
+        <v>141.0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>241.0</v>
+        <v>278.0</v>
       </c>
       <c r="CA5" t="n">
-        <v>331.0</v>
+        <v>419.0</v>
       </c>
       <c r="CB5" t="n">
-        <v>21.0</v>
+        <v>64.0</v>
       </c>
       <c r="CC5" t="n">
-        <v>65.0</v>
+        <v>26.0</v>
       </c>
       <c r="CD5" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF5" t="n">
-        <v>97.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="6">
@@ -2193,184 +2181,184 @@
         <v>92</v>
       </c>
       <c r="C6" t="n" s="2">
-        <v>45532.0</v>
+        <v>45549.0</v>
       </c>
       <c r="D6" t="s">
         <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>2.75</v>
       </c>
       <c r="M6" t="n">
-        <v>5.48</v>
+        <v>3.04</v>
       </c>
       <c r="N6" t="n">
-        <v>12.02</v>
+        <v>2.91</v>
       </c>
       <c r="O6" t="s">
         <v>105</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q6" t="n">
-        <v>24.0</v>
+        <v>9.0</v>
       </c>
       <c r="R6" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="S6" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="V6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>2250.0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>1215.0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1250.0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ6" t="n">
         <v>2.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>240.0</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0.0</v>
       </c>
       <c r="BK6" t="n">
         <v>2.0</v>
@@ -2385,58 +2373,58 @@
         <v>0.0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BR6" t="n">
         <v>20.0</v>
       </c>
       <c r="BS6" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.0</v>
+        <v>102.0</v>
       </c>
       <c r="BV6" t="n">
         <v>0.0</v>
       </c>
       <c r="BW6" t="n">
-        <v>137.0</v>
+        <v>166.0</v>
       </c>
       <c r="BX6" t="n">
         <v>0.0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.0</v>
+        <v>102.0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>137.0</v>
+        <v>166.0</v>
       </c>
       <c r="CA6" t="n">
-        <v>137.0</v>
+        <v>268.0</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="CC6" t="n">
-        <v>55.0</v>
+        <v>29.0</v>
       </c>
       <c r="CD6" t="n">
-        <v>55.0</v>
+        <v>29.0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF6" t="n">
-        <v>46.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="7">
@@ -2447,175 +2435,175 @@
         <v>92</v>
       </c>
       <c r="C7" t="n" s="2">
-        <v>45535.0</v>
+        <v>45556.0</v>
       </c>
       <c r="D7" t="s">
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="O7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.0</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="U7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB7" t="n">
         <v>5.0</v>
       </c>
-      <c r="S7" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="T7" t="n">
+      <c r="AC7" t="n">
         <v>5.0</v>
       </c>
-      <c r="U7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AD7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>7.0</v>
       </c>
-      <c r="AA7" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AP7" t="n">
         <v>30.0</v>
       </c>
-      <c r="AF7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>49.0</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="AR7" t="n">
-        <v>600.0</v>
+        <v>1200.0</v>
       </c>
       <c r="AS7" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>910.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>2100.0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AW7" t="n">
         <v>150.0</v>
       </c>
-      <c r="AT7" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>2450.0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>147.0</v>
-      </c>
       <c r="AX7" t="n">
-        <v>490.0</v>
+        <v>390.0</v>
       </c>
       <c r="AY7" t="n">
-        <v>1020.0</v>
+        <v>4615.0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1500.0</v>
+        <v>4550.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="BC7" t="n">
-        <v>8.0</v>
+        <v>58.0</v>
       </c>
       <c r="BD7" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE7" t="n">
-        <v>4.0</v>
+        <v>58.0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH7" t="n">
         <v>0.0</v>
@@ -2636,13 +2624,13 @@
         <v>0.0</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BQ7" t="n">
         <v>30.0</v>
@@ -2654,43 +2642,43 @@
         <v>50.0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="BU7" t="n">
-        <v>263.0</v>
+        <v>256.0</v>
       </c>
       <c r="BV7" t="n">
         <v>0.0</v>
       </c>
       <c r="BW7" t="n">
-        <v>174.0</v>
+        <v>172.0</v>
       </c>
       <c r="BX7" t="n">
         <v>0.0</v>
       </c>
       <c r="BY7" t="n">
-        <v>263.0</v>
+        <v>256.0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>174.0</v>
+        <v>172.0</v>
       </c>
       <c r="CA7" t="n">
-        <v>437.0</v>
+        <v>428.0</v>
       </c>
       <c r="CB7" t="n">
-        <v>81.0</v>
+        <v>32.0</v>
       </c>
       <c r="CC7" t="n">
-        <v>81.0</v>
+        <v>10.0</v>
       </c>
       <c r="CD7" t="n">
-        <v>81.0</v>
+        <v>10.0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CF7" t="n">
-        <v>100.0</v>
+        <v>159.0</v>
       </c>
     </row>
     <row r="8">
@@ -2701,16 +2689,16 @@
         <v>92</v>
       </c>
       <c r="C8" t="n" s="2">
-        <v>45549.0</v>
+        <v>45561.0</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
         <v>2.0</v>
@@ -2725,37 +2713,37 @@
         <v>1.0</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L8" t="n">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="M8" t="n">
-        <v>3.04</v>
+        <v>3.41</v>
       </c>
       <c r="N8" t="n">
-        <v>2.91</v>
+        <v>2.22</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="R8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T8" t="n">
         <v>4.0</v>
       </c>
-      <c r="S8" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>6.0</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="V8" t="n">
         <v>3.0</v>
@@ -2767,118 +2755,118 @@
         <v>0.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB8" t="n">
         <v>14.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="AD8" t="n">
         <v>5.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AG8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AH8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AI8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AJ8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>4880.0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>765.0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ8" t="n">
         <v>5.0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>243.0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>2250.0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>225.0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>225.0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>1215.0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>1250.0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>2.0</v>
       </c>
       <c r="BK8" t="n">
         <v>2.0</v>
@@ -2899,52 +2887,52 @@
         <v>10.0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="BR8" t="n">
         <v>20.0</v>
       </c>
       <c r="BS8" t="n">
-        <v>40.0</v>
+        <v>70.0</v>
       </c>
       <c r="BT8" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="BU8" t="n">
         <v>400.0</v>
       </c>
-      <c r="BU8" t="n">
-        <v>102.0</v>
-      </c>
       <c r="BV8" t="n">
         <v>0.0</v>
       </c>
       <c r="BW8" t="n">
-        <v>166.0</v>
+        <v>222.0</v>
       </c>
       <c r="BX8" t="n">
         <v>0.0</v>
       </c>
       <c r="BY8" t="n">
-        <v>102.0</v>
+        <v>400.0</v>
       </c>
       <c r="BZ8" t="n">
-        <v>166.0</v>
+        <v>222.0</v>
       </c>
       <c r="CA8" t="n">
-        <v>268.0</v>
+        <v>622.0</v>
       </c>
       <c r="CB8" t="n">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
       <c r="CC8" t="n">
-        <v>29.0</v>
+        <v>45.0</v>
       </c>
       <c r="CD8" t="n">
-        <v>29.0</v>
+        <v>45.0</v>
       </c>
       <c r="CE8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF8" t="n">
-        <v>125.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="9">
@@ -2955,65 +2943,65 @@
         <v>92</v>
       </c>
       <c r="C9" t="n" s="2">
-        <v>45556.0</v>
+        <v>45564.0</v>
       </c>
       <c r="D9" t="s">
         <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V9" t="n">
         <v>4.0</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M9" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="N9" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="O9" t="s">
-        <v>105</v>
-      </c>
-      <c r="P9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3.0</v>
-      </c>
       <c r="W9" t="n">
         <v>0.0</v>
       </c>
@@ -3021,106 +3009,106 @@
         <v>0.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z9" t="n">
         <v>4.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="AE9" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="AV9" t="n">
         <v>12.0</v>
       </c>
-      <c r="AF9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>355.0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>350.0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>910.0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>2100.0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>65.0</v>
-      </c>
       <c r="AW9" t="n">
-        <v>150.0</v>
+        <v>20.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>390.0</v>
+        <v>240.0</v>
       </c>
       <c r="AY9" t="n">
-        <v>4615.0</v>
+        <v>1020.0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>4550.0</v>
+        <v>720.0</v>
       </c>
       <c r="BA9" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="BC9" t="n">
-        <v>58.0</v>
+        <v>85.0</v>
       </c>
       <c r="BD9" t="n">
         <v>0.0</v>
       </c>
       <c r="BE9" t="n">
-        <v>58.0</v>
+        <v>85.0</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BG9" t="n">
         <v>1.0</v>
@@ -3132,11 +3120,11 @@
         <v>0.0</v>
       </c>
       <c r="BJ9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK9" t="n">
         <v>3.0</v>
       </c>
-      <c r="BK9" t="n">
-        <v>2.0</v>
-      </c>
       <c r="BL9" t="n">
         <v>0.0</v>
       </c>
@@ -3144,61 +3132,61 @@
         <v>0.0</v>
       </c>
       <c r="BN9" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO9" t="n">
         <v>10.0</v>
       </c>
       <c r="BP9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ9" t="n">
         <v>20.0</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BR9" t="n">
         <v>30.0</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>20.0</v>
       </c>
       <c r="BS9" t="n">
         <v>50.0</v>
       </c>
       <c r="BT9" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="BU9" t="n">
-        <v>256.0</v>
+        <v>141.0</v>
       </c>
       <c r="BV9" t="n">
         <v>0.0</v>
       </c>
       <c r="BW9" t="n">
-        <v>172.0</v>
+        <v>278.0</v>
       </c>
       <c r="BX9" t="n">
         <v>0.0</v>
       </c>
       <c r="BY9" t="n">
-        <v>256.0</v>
+        <v>141.0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>172.0</v>
+        <v>278.0</v>
       </c>
       <c r="CA9" t="n">
-        <v>428.0</v>
+        <v>419.0</v>
       </c>
       <c r="CB9" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="CC9" t="n">
-        <v>10.0</v>
+        <v>26.0</v>
       </c>
       <c r="CD9" t="n">
-        <v>10.0</v>
+        <v>26.0</v>
       </c>
       <c r="CE9" t="n">
         <v>1.0</v>
       </c>
       <c r="CF9" t="n">
-        <v>159.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="10">
@@ -3209,65 +3197,65 @@
         <v>92</v>
       </c>
       <c r="C10" t="n" s="2">
-        <v>45556.0</v>
+        <v>45564.0</v>
       </c>
       <c r="D10" t="s">
         <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V10" t="n">
         <v>4.0</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M10" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="N10" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="O10" t="s">
-        <v>105</v>
-      </c>
-      <c r="P10" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3.0</v>
-      </c>
       <c r="W10" t="n">
         <v>0.0</v>
       </c>
@@ -3275,109 +3263,109 @@
         <v>0.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z10" t="n">
         <v>4.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>12.0</v>
+        <v>34.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AG10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AH10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="AK10" t="n">
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AM10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AN10" t="n">
-        <v>166.5</v>
+        <v>163.125</v>
       </c>
       <c r="AO10" t="n">
         <v>2.875</v>
       </c>
       <c r="AP10" t="n">
-        <v>32.25</v>
+        <v>38.0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>46.25</v>
+        <v>63.75</v>
       </c>
       <c r="AR10" t="n">
-        <v>587.5</v>
+        <v>975.0</v>
       </c>
       <c r="AS10" t="n">
-        <v>155.0</v>
+        <v>183.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>483.75</v>
+        <v>588.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>1755.0</v>
+        <v>2471.25</v>
       </c>
       <c r="AV10" t="n">
-        <v>28.375</v>
+        <v>25.25</v>
       </c>
       <c r="AW10" t="n">
-        <v>111.0</v>
+        <v>119.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>315.875</v>
+        <v>322.0</v>
       </c>
       <c r="AY10" t="n">
-        <v>1729.375</v>
+        <v>1568.75</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1581.25</v>
+        <v>1658.75</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.25</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.7999999999999999</v>
+        <v>1.0375</v>
       </c>
       <c r="BC10" t="n">
-        <v>38.625</v>
+        <v>48.125</v>
       </c>
       <c r="BD10" t="n">
-        <v>17.5</v>
+        <v>29.375</v>
       </c>
       <c r="BE10" t="n">
-        <v>38.125</v>
+        <v>48.125</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.875</v>
+        <v>1.0</v>
       </c>
       <c r="BH10" t="n">
         <v>0.0</v>
@@ -3386,10 +3374,10 @@
         <v>0.0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1.375</v>
+        <v>2.375</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.625</v>
+        <v>2.375</v>
       </c>
       <c r="BL10" t="n">
         <v>0.0</v>
@@ -3398,61 +3386,61 @@
         <v>0.0</v>
       </c>
       <c r="BN10" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="BO10" t="n">
-        <v>8.75</v>
+        <v>10.0</v>
       </c>
       <c r="BP10" t="n">
         <v>17.5</v>
       </c>
       <c r="BQ10" t="n">
-        <v>13.75</v>
+        <v>23.75</v>
       </c>
       <c r="BR10" t="n">
-        <v>16.25</v>
+        <v>23.75</v>
       </c>
       <c r="BS10" t="n">
-        <v>30.0</v>
+        <v>47.5</v>
       </c>
       <c r="BT10" t="n">
-        <v>475.0</v>
+        <v>687.5</v>
       </c>
       <c r="BU10" t="n">
-        <v>130.625</v>
+        <v>196.375</v>
       </c>
       <c r="BV10" t="n">
         <v>0.0</v>
       </c>
       <c r="BW10" t="n">
-        <v>137.5</v>
+        <v>205.0</v>
       </c>
       <c r="BX10" t="n">
         <v>0.0</v>
       </c>
       <c r="BY10" t="n">
-        <v>130.625</v>
+        <v>196.375</v>
       </c>
       <c r="BZ10" t="n">
-        <v>137.5</v>
+        <v>205.0</v>
       </c>
       <c r="CA10" t="n">
-        <v>268.125</v>
+        <v>401.375</v>
       </c>
       <c r="CB10" t="n">
-        <v>40.0</v>
+        <v>45.875</v>
       </c>
       <c r="CC10" t="n">
-        <v>32.875</v>
+        <v>33.75</v>
       </c>
       <c r="CD10" t="n">
-        <v>34.75</v>
+        <v>27.875</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="CF10" t="n">
-        <v>102.375</v>
+        <v>108.625</v>
       </c>
     </row>
   </sheetData>
@@ -3471,111 +3459,111 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>138</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>139</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>140</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>141</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>142</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>143</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>144</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>145</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>146</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>147</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>148</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>149</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>151</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>152</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>153</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>154</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>155</v>
-      </c>
-      <c r="V1" t="s">
-        <v>156</v>
-      </c>
-      <c r="W1" t="s">
-        <v>157</v>
-      </c>
-      <c r="X1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B2" t="n">
-        <v>1529.0</v>
+        <v>1564.0</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="K2" t="n">
         <v>3.0</v>
@@ -3590,19 +3578,19 @@
         <v>7.0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="R2" t="n">
         <v>4.0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="T2" t="n">
         <v>0.0</v>
@@ -3620,45 +3608,45 @@
         <v>2.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>50.0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B3" t="n">
-        <v>133.0</v>
+        <v>1665.0</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
         <v>220</v>
       </c>
-      <c r="F3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" t="s">
-        <v>224</v>
-      </c>
       <c r="H3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J3" t="n">
-        <v>2.0</v>
+        <v>7.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
@@ -3667,22 +3655,22 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="O3" t="n">
         <v>4.0</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>7.0</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>8.0</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.0</v>
-      </c>
       <c r="S3" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -3694,51 +3682,51 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>8.0</v>
+        <v>41.0</v>
       </c>
       <c r="X3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>80.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B4" t="n">
-        <v>208.0</v>
+        <v>71.0</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
@@ -3747,19 +3735,19 @@
         <v>0.0</v>
       </c>
       <c r="N4" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="P4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S4" t="n">
         <v>4.0</v>
@@ -3774,51 +3762,51 @@
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>4.0</v>
+        <v>29.0</v>
       </c>
       <c r="X4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>75.0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B5" t="n">
-        <v>671.0</v>
+        <v>136.0</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" t="s">
         <v>224</v>
       </c>
-      <c r="H5" t="s">
-        <v>228</v>
-      </c>
       <c r="I5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
@@ -3830,19 +3818,19 @@
         <v>4.0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="P5" t="n">
         <v>1.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>22.0</v>
+        <v>9.0</v>
       </c>
       <c r="R5" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="S5" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
@@ -3854,48 +3842,48 @@
         <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="X5" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y5" t="n">
         <v>1.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>83.3</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B6" t="n">
-        <v>944.0</v>
+        <v>212.0</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" t="s">
         <v>220</v>
       </c>
-      <c r="F6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" t="s">
-        <v>224</v>
-      </c>
       <c r="H6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J6" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
         <v>1.0</v>
@@ -3910,72 +3898,72 @@
         <v>4.0</v>
       </c>
       <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S6" t="n">
         <v>4.0</v>
       </c>
-      <c r="P6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X6" t="n">
         <v>3.0</v>
       </c>
-      <c r="T6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>4.0</v>
-      </c>
       <c r="Y6" t="n">
         <v>1.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>80.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B7" t="n">
-        <v>1110.0</v>
+        <v>680.0</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J7" t="n">
-        <v>2.2</v>
+        <v>5.8</v>
       </c>
       <c r="K7" t="n">
         <v>1.0</v>
@@ -3987,22 +3975,22 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="O7" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
@@ -4014,48 +4002,48 @@
         <v>0.0</v>
       </c>
       <c r="W7" t="n">
-        <v>7.0</v>
+        <v>27.0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z7" t="e">
-        <v>#N/A</v>
+        <v>1.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B8" t="n">
-        <v>1629.0</v>
+        <v>962.0</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J8" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="K8" t="n">
         <v>1.0</v>
@@ -4067,75 +4055,75 @@
         <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="O8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S8" t="n">
         <v>3.0</v>
       </c>
-      <c r="P8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="T8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W8" t="n">
         <v>7.0</v>
       </c>
-      <c r="R8" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>30.0</v>
-      </c>
       <c r="X8" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.2</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B9" t="n">
-        <v>1666.0</v>
+        <v>1131.0</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
         <v>220</v>
       </c>
-      <c r="F9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" t="s">
-        <v>224</v>
-      </c>
       <c r="H9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J9" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
         <v>1.0</v>
@@ -4147,22 +4135,22 @@
         <v>0.0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="O9" t="n">
-        <v>4.0</v>
+        <v>24.0</v>
       </c>
       <c r="P9" t="n">
         <v>0.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.0</v>
+        <v>31.0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="T9" t="n">
         <v>0.0</v>
@@ -4174,48 +4162,48 @@
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
       <c r="X9" t="n">
         <v>1.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>25.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B10" t="n">
-        <v>1777.0</v>
+        <v>1703.0</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J10" t="n">
-        <v>6.0</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>1.0</v>
@@ -4227,78 +4215,78 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S10" t="n">
         <v>2.0</v>
       </c>
-      <c r="P10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.0</v>
-      </c>
       <c r="T10" t="n">
         <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V10" t="n">
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z10" t="e">
-        <v>#N/A</v>
+        <v>3.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B11" t="n">
-        <v>69.0</v>
+        <v>1814.0</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J11" t="n">
-        <v>2.8</v>
+        <v>8.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L11" t="n">
         <v>0.0</v>
@@ -4307,10 +4295,10 @@
         <v>0.0</v>
       </c>
       <c r="N11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="O11" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="P11" t="n">
         <v>0.0</v>
@@ -4319,63 +4307,63 @@
         <v>0.0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V11" t="n">
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="X11" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>28.6</v>
+        <v>0.0</v>
+      </c>
+      <c r="Z11" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B12" t="n">
-        <v>149.0</v>
+        <v>152.0</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" t="s">
         <v>220</v>
       </c>
-      <c r="F12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" t="s">
-        <v>224</v>
-      </c>
       <c r="H12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.0</v>
@@ -4387,7 +4375,7 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O12" t="n">
         <v>1.0</v>
@@ -4414,13 +4402,13 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X12" t="n">
         <v>0.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z12" t="n">
         <v>0.0</v>
@@ -4428,31 +4416,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B13" t="n">
-        <v>183.0</v>
+        <v>187.0</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H13" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J13" t="n">
         <v>1.9</v>
@@ -4508,34 +4496,34 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B14" t="n">
-        <v>347.0</v>
+        <v>354.0</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I14" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="K14" t="n">
         <v>0.0</v>
@@ -4547,7 +4535,7 @@
         <v>0.0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="O14" t="n">
         <v>3.0</v>
@@ -4559,10 +4547,10 @@
         <v>0.0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="T14" t="n">
         <v>0.0</v>
@@ -4574,10 +4562,10 @@
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="X14" t="n">
         <v>3.0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.0</v>
       </c>
       <c r="Y14" t="n">
         <v>0.0</v>
@@ -4588,31 +4576,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B15" t="n">
-        <v>354.0</v>
+        <v>361.0</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H15" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J15" t="n">
         <v>2.7</v>
@@ -4668,34 +4656,34 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B16" t="n">
-        <v>514.0</v>
+        <v>523.0</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
         <v>220</v>
       </c>
-      <c r="F16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" t="s">
-        <v>224</v>
-      </c>
       <c r="H16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J16" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="K16" t="n">
         <v>0.0</v>
@@ -4707,10 +4695,10 @@
         <v>0.0</v>
       </c>
       <c r="N16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O16" t="n">
         <v>2.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.0</v>
       </c>
       <c r="P16" t="n">
         <v>0.0</v>
@@ -4737,45 +4725,45 @@
         <v>4.0</v>
       </c>
       <c r="X16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>2.0</v>
       </c>
-      <c r="Y16" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Z16" t="n">
-        <v>100.0</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B17" t="n">
-        <v>633.0</v>
+        <v>642.0</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
         <v>220</v>
       </c>
-      <c r="F17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" t="s">
-        <v>224</v>
-      </c>
       <c r="H17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I17" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J17" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="K17" t="n">
         <v>0.0</v>
@@ -4787,16 +4775,16 @@
         <v>0.0</v>
       </c>
       <c r="N17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="P17" t="n">
         <v>2.0</v>
       </c>
-      <c r="O17" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Q17" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="R17" t="n">
         <v>3.0</v>
@@ -4805,7 +4793,7 @@
         <v>7.0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
@@ -4814,45 +4802,45 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>16.0</v>
+        <v>28.0</v>
       </c>
       <c r="X17" t="n">
         <v>8.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>53.3</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B18" t="n">
-        <v>646.0</v>
+        <v>655.0</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J18" t="n">
         <v>2.0</v>
@@ -4908,50 +4896,50 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B19" t="n">
-        <v>1107.0</v>
+        <v>1128.0</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E19" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O19" t="n">
         <v>6.0</v>
       </c>
-      <c r="K19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>3.0</v>
-      </c>
       <c r="P19" t="n">
         <v>0.0</v>
       </c>
@@ -4959,10 +4947,10 @@
         <v>0.0</v>
       </c>
       <c r="R19" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="S19" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
@@ -4974,48 +4962,48 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
       <c r="X19" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>53.8</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B20" t="n">
-        <v>1123.0</v>
+        <v>1144.0</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E20" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H20" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I20" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2</v>
+        <v>1.0</v>
       </c>
       <c r="K20" t="n">
         <v>0.0</v>
@@ -5030,7 +5018,7 @@
         <v>0.0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P20" t="n">
         <v>0.0</v>
@@ -5039,63 +5027,63 @@
         <v>1.0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S20" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>2.0</v>
       </c>
-      <c r="T20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Z20" t="n">
-        <v>0.0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B21" t="n">
-        <v>1367.0</v>
+        <v>1397.0</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H21" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I21" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>6.1</v>
       </c>
       <c r="K21" t="n">
         <v>0.0</v>
@@ -5107,7 +5095,7 @@
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="O21" t="n">
         <v>1.0</v>
@@ -5119,10 +5107,10 @@
         <v>0.0</v>
       </c>
       <c r="R21" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="S21" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="T21" t="n">
         <v>0.0</v>
@@ -5134,45 +5122,45 @@
         <v>0.0</v>
       </c>
       <c r="W21" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>11.0</v>
       </c>
-      <c r="X21" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>10.0</v>
-      </c>
       <c r="Z21" t="n">
-        <v>63.0</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B22" t="n">
-        <v>1631.0</v>
+        <v>1667.0</v>
       </c>
       <c r="C22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" t="s">
         <v>205</v>
       </c>
-      <c r="D22" t="s">
-        <v>211</v>
-      </c>
       <c r="E22" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" t="s">
         <v>220</v>
       </c>
-      <c r="F22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" t="s">
-        <v>224</v>
-      </c>
       <c r="H22" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I22" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J22" t="n">
         <v>1.3</v>
@@ -5228,34 +5216,34 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B23" t="n">
-        <v>1639.0</v>
+        <v>1676.0</v>
       </c>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D23" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E23" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H23" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J23" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="K23" t="n">
         <v>0.0</v>
@@ -5276,31 +5264,31 @@
         <v>0.0</v>
       </c>
       <c r="Q23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="X23" t="n">
         <v>2.0</v>
       </c>
-      <c r="R23" t="n">
+      <c r="Y23" t="n">
         <v>2.0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1.0</v>
       </c>
       <c r="Z23" t="n">
         <v>50.0</v>
@@ -5308,34 +5296,34 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B24" t="n">
-        <v>1653.0</v>
+        <v>1690.0</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" t="s">
         <v>216</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" t="s">
         <v>220</v>
       </c>
-      <c r="F24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" t="s">
-        <v>224</v>
-      </c>
       <c r="H24" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I24" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="K24" t="n">
         <v>0.0</v>
@@ -5350,7 +5338,7 @@
         <v>6.0</v>
       </c>
       <c r="O24" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P24" t="n">
         <v>0.0</v>
@@ -5359,7 +5347,7 @@
         <v>0.0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S24" t="n">
         <v>0.0</v>
@@ -5374,7 +5362,7 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="X24" t="n">
         <v>3.0</v>
@@ -5388,31 +5376,31 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B25" t="n">
-        <v>1675.0</v>
+        <v>1712.0</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D25" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E25" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J25" t="n">
         <v>3.7</v>
@@ -5482,236 +5470,236 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>138</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M1" t="s">
         <v>139</v>
       </c>
-      <c r="F1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O1" t="s">
         <v>259</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>260</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>261</v>
       </c>
-      <c r="M1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>262</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>263</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>264</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>265</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>266</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>267</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>268</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>269</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>270</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>271</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>272</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>273</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>274</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>275</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>276</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>277</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>278</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B2" t="n">
-        <v>1110.0</v>
+        <v>1131.0</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J2" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="K2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.0</v>
       </c>
-      <c r="L2" t="n">
-        <v>197.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="W2" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="X2" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.0</v>
+        <v>2.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA2" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="AB2" t="n">
         <v>23.0</v>
       </c>
-      <c r="AB2" t="n">
-        <v>10.0</v>
-      </c>
       <c r="AC2" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="AD2" t="n">
         <v>0.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B3" t="n">
-        <v>183.0</v>
+        <v>187.0</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J3" t="n">
         <v>2.0</v>
@@ -5791,43 +5779,43 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B4" t="n">
-        <v>633.0</v>
+        <v>642.0</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
         <v>220</v>
       </c>
-      <c r="F4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" t="s">
-        <v>224</v>
-      </c>
       <c r="H4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K4" t="n">
         <v>6.0</v>
       </c>
-      <c r="K4" t="n">
-        <v>4.0</v>
-      </c>
       <c r="L4" t="n">
-        <v>397.0</v>
+        <v>558.0</v>
       </c>
       <c r="M4" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="N4" t="n">
         <v>1.0</v>
@@ -5845,7 +5833,7 @@
         <v>0.0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T4" t="n">
         <v>0.0</v>
@@ -5854,84 +5842,84 @@
         <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="W4" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>32.0</v>
+        <v>38.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>53.0</v>
+        <v>71.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="AD4" t="n">
         <v>0.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.55</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B5" t="n">
-        <v>1653.0</v>
+        <v>1690.0</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" t="s">
         <v>216</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
         <v>220</v>
       </c>
-      <c r="F5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" t="s">
-        <v>224</v>
-      </c>
       <c r="H5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K5" t="n">
         <v>2.0</v>
       </c>
       <c r="L5" t="n">
-        <v>216.0</v>
+        <v>246.0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N5" t="n">
         <v>1.0</v>
@@ -5979,90 +5967,90 @@
         <v>14.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="AD5" t="n">
         <v>0.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B6" t="n">
-        <v>69.0</v>
+        <v>71.0</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="I6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="K6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.0</v>
       </c>
-      <c r="L6" t="n">
-        <v>249.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U6" t="n">
         <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W6" t="n">
         <v>0.2</v>
@@ -6071,75 +6059,75 @@
         <v>0.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="AC6" t="n">
         <v>0.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="AF6" t="n">
         <v>0.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B7" t="n">
-        <v>133.0</v>
+        <v>136.0</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
         <v>220</v>
       </c>
-      <c r="F7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>224</v>
       </c>
-      <c r="H7" t="s">
-        <v>226</v>
-      </c>
       <c r="I7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J7" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K7" t="n">
         <v>2.0</v>
       </c>
       <c r="L7" t="n">
-        <v>182.0</v>
+        <v>198.0</v>
       </c>
       <c r="M7" t="n">
-        <v>2.0</v>
+        <v>2.2</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -6175,16 +6163,16 @@
         <v>0.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA7" t="n">
         <v>7.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="AC7" t="n">
         <v>0.0</v>
@@ -6207,43 +6195,43 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B8" t="n">
-        <v>149.0</v>
+        <v>152.0</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
         <v>220</v>
       </c>
-      <c r="F8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" t="s">
-        <v>224</v>
-      </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J8" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L8" t="n">
-        <v>22.0</v>
+        <v>109.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -6270,16 +6258,16 @@
         <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="X8" t="n">
         <v>0.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="Z8" t="n">
         <v>0.0</v>
@@ -6288,7 +6276,7 @@
         <v>0.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC8" t="n">
         <v>0.0</v>
@@ -6306,48 +6294,48 @@
         <v>0.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B9" t="n">
-        <v>208.0</v>
+        <v>212.0</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.0</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.0</v>
-      </c>
       <c r="L9" t="n">
-        <v>209.0</v>
+        <v>299.0</v>
       </c>
       <c r="M9" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -6389,25 +6377,25 @@
         <v>3.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="AC9" t="n">
         <v>0.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="AF9" t="n">
         <v>0.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="AH9" t="n">
         <v>0.0</v>
@@ -6415,88 +6403,88 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B10" t="n">
-        <v>347.0</v>
+        <v>354.0</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I10" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J10" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L10" t="n">
-        <v>48.0</v>
+        <v>150.0</v>
       </c>
       <c r="M10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" t="n">
         <v>0.5</v>
       </c>
-      <c r="N10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.1</v>
-      </c>
       <c r="W10" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="X10" t="n">
         <v>0.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="AC10" t="n">
         <v>0.0</v>
@@ -6514,36 +6502,36 @@
         <v>0.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B11" t="n">
-        <v>354.0</v>
+        <v>361.0</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J11" t="n">
         <v>4.0</v>
@@ -6623,135 +6611,135 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B12" t="n">
-        <v>514.0</v>
+        <v>523.0</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" t="s">
         <v>220</v>
       </c>
-      <c r="F12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" t="s">
-        <v>224</v>
-      </c>
       <c r="H12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I12" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.0</v>
       </c>
-      <c r="K12" t="n">
-        <v>1.0</v>
-      </c>
       <c r="L12" t="n">
-        <v>109.0</v>
+        <v>175.0</v>
       </c>
       <c r="M12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Y12" t="n">
         <v>1.2</v>
       </c>
-      <c r="N12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.1</v>
-      </c>
       <c r="Z12" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA12" t="n">
         <v>0.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="AC12" t="n">
         <v>0.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0</v>
+        <v>0.51</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0</v>
+        <v>0.51</v>
       </c>
       <c r="AF12" t="n">
         <v>0.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0</v>
+        <v>0.51</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B13" t="n">
-        <v>646.0</v>
+        <v>655.0</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J13" t="n">
         <v>2.0</v>
@@ -6831,43 +6819,43 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B14" t="n">
-        <v>671.0</v>
+        <v>680.0</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I14" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K14" t="n">
         <v>6.0</v>
       </c>
-      <c r="K14" t="n">
-        <v>5.0</v>
-      </c>
       <c r="L14" t="n">
-        <v>399.0</v>
+        <v>519.0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -6894,26 +6882,26 @@
         <v>0.0</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="W14" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="X14" t="n">
         <v>1.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA14" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="AB14" t="n">
         <v>40.0</v>
       </c>
-      <c r="AB14" t="n">
-        <v>30.0</v>
-      </c>
       <c r="AC14" t="n">
         <v>0.0</v>
       </c>
@@ -6930,36 +6918,36 @@
         <v>0.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B15" t="n">
-        <v>944.0</v>
+        <v>962.0</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" t="s">
         <v>220</v>
       </c>
-      <c r="F15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" t="s">
-        <v>224</v>
-      </c>
       <c r="H15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J15" t="n">
         <v>5.0</v>
@@ -7039,43 +7027,43 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B16" t="n">
-        <v>1107.0</v>
+        <v>1128.0</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J16" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K16" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="L16" t="n">
-        <v>540.0</v>
+        <v>720.0</v>
       </c>
       <c r="M16" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -7108,7 +7096,7 @@
         <v>0.4</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y16" t="n">
         <v>0.4</v>
@@ -7117,10 +7105,10 @@
         <v>1.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC16" t="n">
         <v>0.0</v>
@@ -7138,93 +7126,93 @@
         <v>0.0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B17" t="n">
-        <v>1123.0</v>
+        <v>1144.0</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I17" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J17" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L17" t="n">
-        <v>21.0</v>
+        <v>90.0</v>
       </c>
       <c r="M17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y17" t="n">
         <v>0.2</v>
       </c>
-      <c r="N17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Z17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC17" t="n">
         <v>0.0</v>
@@ -7242,48 +7230,48 @@
         <v>0.0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B18" t="n">
-        <v>1367.0</v>
+        <v>1397.0</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E18" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J18" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="K18" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="L18" t="n">
-        <v>365.0</v>
+        <v>545.0</v>
       </c>
       <c r="M18" t="n">
-        <v>4.1</v>
+        <v>6.1</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -7316,16 +7304,16 @@
         <v>0.1</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="AB18" t="n">
         <v>0.0</v>
@@ -7346,48 +7334,48 @@
         <v>0.0</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B19" t="n">
-        <v>1529.0</v>
+        <v>1564.0</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E19" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J19" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K19" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L19" t="n">
-        <v>382.0</v>
+        <v>472.0</v>
       </c>
       <c r="M19" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -7426,13 +7414,13 @@
         <v>0.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="AC19" t="n">
         <v>0.0</v>
@@ -7450,48 +7438,48 @@
         <v>0.0</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B20" t="n">
-        <v>1629.0</v>
+        <v>1665.0</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20" t="s">
         <v>222</v>
       </c>
-      <c r="F20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" t="s">
-        <v>231</v>
-      </c>
       <c r="I20" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J20" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K20" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="L20" t="n">
-        <v>526.0</v>
+        <v>666.0</v>
       </c>
       <c r="M20" t="n">
-        <v>5.8</v>
+        <v>7.4</v>
       </c>
       <c r="N20" t="n">
         <v>0.0</v>
@@ -7512,78 +7500,78 @@
         <v>0.0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U20" t="n">
         <v>0.0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="X20" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="Z20" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AB20" t="n">
         <v>9.0</v>
       </c>
-      <c r="AA20" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>5.0</v>
-      </c>
       <c r="AC20" t="n">
         <v>0.0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AF20" t="n">
         <v>0.0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B21" t="n">
-        <v>1631.0</v>
+        <v>1667.0</v>
       </c>
       <c r="C21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" t="s">
         <v>205</v>
       </c>
-      <c r="D21" t="s">
-        <v>211</v>
-      </c>
       <c r="E21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" t="s">
         <v>220</v>
       </c>
-      <c r="F21" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" t="s">
-        <v>224</v>
-      </c>
       <c r="H21" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J21" t="n">
         <v>3.0</v>
@@ -7663,43 +7651,43 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B22" t="n">
-        <v>1639.0</v>
+        <v>1676.0</v>
       </c>
       <c r="C22" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D22" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I22" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.0</v>
       </c>
-      <c r="K22" t="n">
-        <v>2.0</v>
-      </c>
       <c r="L22" t="n">
-        <v>158.0</v>
+        <v>248.0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -7738,13 +7726,13 @@
         <v>0.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="AC22" t="n">
         <v>0.0</v>
@@ -7767,43 +7755,43 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B23" t="n">
-        <v>1666.0</v>
+        <v>1703.0</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" t="s">
         <v>220</v>
       </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>224</v>
-      </c>
       <c r="H23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I23" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J23" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K23" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L23" t="n">
-        <v>215.0</v>
+        <v>318.0</v>
       </c>
       <c r="M23" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
@@ -7836,19 +7824,19 @@
         <v>0.5</v>
       </c>
       <c r="X23" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.0</v>
+        <v>1.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="AC23" t="n">
         <v>0.0</v>
@@ -7866,36 +7854,36 @@
         <v>0.0</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B24" t="n">
-        <v>1675.0</v>
+        <v>1712.0</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E24" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H24" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J24" t="n">
         <v>4.0</v>
@@ -7975,43 +7963,43 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B25" t="n">
-        <v>1777.0</v>
+        <v>1814.0</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E25" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J25" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K25" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="L25" t="n">
-        <v>540.0</v>
+        <v>720.0</v>
       </c>
       <c r="M25" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
